--- a/data/Enclave/diabetesOverallInfo.xlsx
+++ b/data/Enclave/diabetesOverallInfo.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Enclave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E0C976-7409-40FD-9A10-A24FDED93FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9F996-C355-4468-ABEF-7571DB00A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17970" yWindow="13050" windowWidth="17175" windowHeight="9930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="NSF SCH - counts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -103,6 +104,51 @@
   </si>
   <si>
     <t>For most up-to-date Enclave information, the analysis just needs to be reloaded</t>
+  </si>
+  <si>
+    <t>Concept-Patient Counts</t>
+  </si>
+  <si>
+    <t>Patients</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>condition_era</t>
+  </si>
+  <si>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>Conditions</t>
+  </si>
+  <si>
+    <t>Drugs</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Measurements</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t># Patients</t>
+  </si>
+  <si>
+    <t># Concepts</t>
+  </si>
+  <si>
+    <t>Overall</t>
+  </si>
+  <si>
+    <t>Diabetes</t>
+  </si>
+  <si>
+    <t>Overall three labels : 19,182,068</t>
   </si>
 </sst>
 </file>
@@ -138,17 +184,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -465,7 +512,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
@@ -473,13 +520,13 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -487,13 +534,13 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="2"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -501,7 +548,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -544,7 +591,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -561,4 +608,279 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F166E7A-D0A2-4B1F-9C82-890B3BE151D3}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.05078125" customWidth="1"/>
+    <col min="2" max="2" width="12.5234375" customWidth="1"/>
+    <col min="9" max="9" width="13.3125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4">
+        <v>19457296</v>
+      </c>
+      <c r="C4" s="4">
+        <v>59595</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="4">
+        <v>19457296</v>
+      </c>
+      <c r="J4" s="4">
+        <v>59595</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4">
+        <v>19103962</v>
+      </c>
+      <c r="C5" s="4">
+        <v>64734</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20380717</v>
+      </c>
+      <c r="J5" s="4">
+        <v>12257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3907696</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="4">
+        <v>20077255</v>
+      </c>
+      <c r="J6" s="4">
+        <v>26471</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4">
+        <v>20415631</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="4">
+        <v>18357010</v>
+      </c>
+      <c r="J7" s="4">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>17923782</v>
+      </c>
+      <c r="C8" s="4">
+        <v>31061</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4">
+        <v>20415631</v>
+      </c>
+      <c r="J8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
+        <v>18357010</v>
+      </c>
+      <c r="C9" s="4">
+        <v>41868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4">
+        <v>20380717</v>
+      </c>
+      <c r="C10" s="4">
+        <v>12257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>26471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="4">
+        <v>19103962</v>
+      </c>
+      <c r="H21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="4">
+        <v>3907696</v>
+      </c>
+      <c r="C22">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="4">
+        <v>17923782</v>
+      </c>
+      <c r="C24" s="4">
+        <v>31061</v>
+      </c>
+      <c r="H24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Enclave/diabetesOverallInfo.xlsx
+++ b/data/Enclave/diabetesOverallInfo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Enclave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9F996-C355-4468-ABEF-7571DB00A69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A494CBC-791D-4285-9DB6-873F12F65CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17970" yWindow="13050" windowWidth="17175" windowHeight="9930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7476" yWindow="2694" windowWidth="17280" windowHeight="9984" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawInfo" sheetId="1" r:id="rId1"/>
     <sheet name="NSF SCH - counts" sheetId="2" r:id="rId2"/>
+    <sheet name="Diabetes counts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -149,14 +150,55 @@
   </si>
   <si>
     <t>Overall three labels : 19,182,068</t>
+  </si>
+  <si>
+    <t>diabetes_1</t>
+  </si>
+  <si>
+    <t>diabetes_2</t>
+  </si>
+  <si>
+    <t>diabetes_3</t>
+  </si>
+  <si>
+    <t>patient count</t>
+  </si>
+  <si>
+    <t>Procedures</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>Uncomplicated:</t>
+  </si>
+  <si>
+    <t>Complicated</t>
+  </si>
+  <si>
+    <t>Diabetes Label</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Both</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -172,10 +214,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -184,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,10 +260,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +586,7 @@
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -520,13 +594,13 @@
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -534,13 +608,13 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
     </row>
@@ -548,7 +622,7 @@
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
@@ -614,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F166E7A-D0A2-4B1F-9C82-890B3BE151D3}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -654,19 +728,19 @@
       <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>19457296</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>59595</v>
       </c>
       <c r="H4" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>19457296</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>59595</v>
       </c>
     </row>
@@ -674,19 +748,19 @@
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>19103962</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>64734</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>20380717</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>12257</v>
       </c>
     </row>
@@ -694,7 +768,7 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>3907696</v>
       </c>
       <c r="C6">
@@ -703,10 +777,10 @@
       <c r="H6" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>20077255</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="3">
         <v>26471</v>
       </c>
     </row>
@@ -714,7 +788,7 @@
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>20415631</v>
       </c>
       <c r="C7">
@@ -723,10 +797,10 @@
       <c r="H7" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>18357010</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>41868</v>
       </c>
     </row>
@@ -734,16 +808,16 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>17923782</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>31061</v>
       </c>
       <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>20415631</v>
       </c>
       <c r="J8">
@@ -754,10 +828,10 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>18357010</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>41868</v>
       </c>
     </row>
@@ -765,10 +839,10 @@
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>20380717</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>12257</v>
       </c>
     </row>
@@ -776,7 +850,7 @@
       <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>26471</v>
       </c>
     </row>
@@ -822,7 +896,7 @@
       <c r="A21" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>19103962</v>
       </c>
       <c r="H21" t="s">
@@ -833,7 +907,7 @@
       <c r="A22" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>3907696</v>
       </c>
       <c r="C22">
@@ -855,10 +929,10 @@
       <c r="A24" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>17923782</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>31061</v>
       </c>
       <c r="H24" t="s">
@@ -883,4 +957,660 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2AE3B-2F5A-4EC4-A98E-26E04627135B}">
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.05078125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.20703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>2692158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1441288</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1046</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>1</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s">
+        <v>49</v>
+      </c>
+      <c r="U4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>1</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0</v>
+      </c>
+      <c r="T5" t="s">
+        <v>48</v>
+      </c>
+      <c r="U5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2664544</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0</v>
+      </c>
+      <c r="T6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U6">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1429581</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="5">
+        <v>2692158</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1441288</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1046</v>
+      </c>
+      <c r="M7" s="5">
+        <v>2664544</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1429581</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1046</v>
+      </c>
+      <c r="P7" s="5">
+        <v>2481107</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1352568</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1042</v>
+      </c>
+      <c r="T7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1046</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>2481107</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="M10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1352568</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>0</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>1</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1042</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="5">
+        <v>2628827</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1407536</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1046</v>
+      </c>
+      <c r="M12" s="5">
+        <v>2680883</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1437147</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1046</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2616764</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1416166</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2628827</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1407536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1046</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="T17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>18888244</v>
+      </c>
+      <c r="T18" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>2680883</v>
+      </c>
+      <c r="U19">
+        <v>2680883</v>
+      </c>
+      <c r="V19">
+        <v>1437147</v>
+      </c>
+      <c r="W19">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1437147</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2616764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1416166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1042</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/Enclave/diabetesOverallInfo.xlsx
+++ b/data/Enclave/diabetesOverallInfo.xlsx
@@ -8,26 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirna Elizondo\OneDrive - Texas State University\Desktop\PersonalRepo\DiabetesProject\DiabetesProject\data\Enclave\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A494CBC-791D-4285-9DB6-873F12F65CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81758A2-AF88-467C-879D-2E04EDF35E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7476" yWindow="2694" windowWidth="17280" windowHeight="9984" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6462" yWindow="2430" windowWidth="17280" windowHeight="9984" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rawInfo" sheetId="1" r:id="rId1"/>
     <sheet name="NSF SCH - counts" sheetId="2" r:id="rId2"/>
     <sheet name="Diabetes counts" sheetId="3" r:id="rId3"/>
+    <sheet name="Demographics" sheetId="4" r:id="rId4"/>
+    <sheet name="longcovid classes" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>Dataset Name</t>
   </si>
@@ -183,13 +196,187 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t># patients</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>&gt;90</t>
+  </si>
+  <si>
+    <t>African_American</t>
+  </si>
+  <si>
+    <t>American_Indian_or_Alaska_Native</t>
+  </si>
+  <si>
+    <t>Asian_Indian</t>
+  </si>
+  <si>
+    <t>Bangladeshi</t>
+  </si>
+  <si>
+    <t>Barbadian</t>
+  </si>
+  <si>
+    <t>Bhutanese</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Cambodian</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Dominica_Islander</t>
+  </si>
+  <si>
+    <t>Filipino</t>
+  </si>
+  <si>
+    <t>Haitian</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Hmong</t>
+  </si>
+  <si>
+    <t>Indonesian</t>
+  </si>
+  <si>
+    <t>Jamaican</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Laotian</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malaysian</t>
+  </si>
+  <si>
+    <t>Melanesian</t>
+  </si>
+  <si>
+    <t>Micronesian</t>
+  </si>
+  <si>
+    <t>Middle_Eastern_or_North_African</t>
+  </si>
+  <si>
+    <t>Multiples</t>
+  </si>
+  <si>
+    <t>Native_Hawaiian_or_Other_Pacific_Islander</t>
+  </si>
+  <si>
+    <t>Nepalese</t>
+  </si>
+  <si>
+    <t>Okinawan</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Pakistani</t>
+  </si>
+  <si>
+    <t>Polynesian</t>
+  </si>
+  <si>
+    <t>Singaporean</t>
+  </si>
+  <si>
+    <t>Sri_Lankan</t>
+  </si>
+  <si>
+    <t>Taiwanese</t>
+  </si>
+  <si>
+    <t>Thai</t>
+  </si>
+  <si>
+    <t>Trinidadian</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>West_Indian</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Not Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Hispanic or Latino</t>
+  </si>
+  <si>
+    <t>Ethnicity</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>70-90</t>
+  </si>
+  <si>
+    <t>50-70</t>
+  </si>
+  <si>
+    <t>30-50</t>
+  </si>
+  <si>
+    <t>0-10</t>
+  </si>
+  <si>
+    <t>10-30</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Positive</t>
+  </si>
+  <si>
+    <t>Negative</t>
+  </si>
+  <si>
+    <t>Dataframe</t>
+  </si>
+  <si>
+    <t>Devices</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,13 +392,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF5C7080"/>
+      <name val="12px Source-Code-Pro"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="12px Source-Code-Pro"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F8FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEFF7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -252,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -261,15 +482,27 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,13 +789,13 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
     <col min="9" max="9" width="11.89453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -582,49 +815,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -632,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -640,7 +873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -648,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -656,7 +889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -664,12 +897,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="57.6">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -692,14 +925,14 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.05078125" customWidth="1"/>
     <col min="2" max="2" width="12.5234375" customWidth="1"/>
     <col min="9" max="9" width="13.3125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -707,7 +940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>27</v>
       </c>
@@ -724,7 +957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -744,7 +977,7 @@
         <v>59595</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -764,7 +997,7 @@
         <v>12257</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -784,7 +1017,7 @@
         <v>26471</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -804,7 +1037,7 @@
         <v>41868</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -824,7 +1057,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -835,7 +1068,7 @@
         <v>41868</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -846,7 +1079,7 @@
         <v>12257</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -854,7 +1087,7 @@
         <v>26471</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -862,12 +1095,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>27</v>
       </c>
@@ -884,7 +1117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -892,7 +1125,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -903,7 +1136,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -917,7 +1150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -925,7 +1158,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -939,17 +1172,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -963,18 +1196,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE2AE3B-2F5A-4EC4-A98E-26E04627135B}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView zoomScale="67" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:R12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="11.05078125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.20703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -991,7 +1224,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23">
       <c r="B2">
         <v>0</v>
       </c>
@@ -1005,7 +1238,7 @@
         <v>2692158</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23">
       <c r="B3">
         <v>0</v>
       </c>
@@ -1018,24 +1251,24 @@
       <c r="E3">
         <v>1441288</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="7" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+    </row>
+    <row r="4" spans="1:23">
       <c r="B4">
         <v>1</v>
       </c>
@@ -1048,34 +1281,34 @@
       <c r="E4">
         <v>1046</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1</v>
-      </c>
-      <c r="M4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" s="5">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5">
-        <v>1</v>
-      </c>
-      <c r="P4" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
         <v>1</v>
       </c>
       <c r="T4" t="s">
@@ -1085,35 +1318,35 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="I5" s="6" t="s">
+    <row r="5" spans="1:23">
+      <c r="I5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <v>1</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5">
-        <v>0</v>
-      </c>
-      <c r="P5" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1</v>
-      </c>
-      <c r="R5" s="5">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1</v>
+      </c>
+      <c r="R5" s="4">
         <v>0</v>
       </c>
       <c r="T5" t="s">
@@ -1123,7 +1356,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1139,34 +1372,34 @@
       <c r="E6">
         <v>2664544</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>1</v>
-      </c>
-      <c r="N6" s="5">
-        <v>0</v>
-      </c>
-      <c r="O6" s="5">
-        <v>0</v>
-      </c>
-      <c r="P6" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
         <v>0</v>
       </c>
       <c r="T6" t="s">
@@ -1176,7 +1409,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23">
       <c r="B7">
         <v>0</v>
       </c>
@@ -1189,41 +1422,44 @@
       <c r="E7">
         <v>1429581</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="I7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="4">
         <v>2692158</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="4">
         <v>1441288</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>1046</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="4">
         <v>2664544</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>1429581</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="6">
         <v>1046</v>
       </c>
-      <c r="P7" s="5">
+      <c r="P7" s="4">
         <v>2481107</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="4">
         <v>1352568</v>
       </c>
-      <c r="R7" s="5">
+      <c r="R7" s="4">
         <v>1042</v>
       </c>
       <c r="T7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="B8">
         <v>1</v>
       </c>
@@ -1236,56 +1472,56 @@
       <c r="E8">
         <v>1046</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7" t="s">
+      <c r="I8" s="4"/>
+      <c r="J8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="I9" s="6" t="s">
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="I9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>1</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>1</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1301,38 +1537,38 @@
       <c r="E10">
         <v>2481107</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="M10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1</v>
-      </c>
-      <c r="O10" s="5">
-        <v>1</v>
-      </c>
-      <c r="P10" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1345,38 +1581,38 @@
       <c r="E11">
         <v>1352568</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="M11" s="5">
-        <v>1</v>
-      </c>
-      <c r="N11" s="5">
-        <v>0</v>
-      </c>
-      <c r="O11" s="5">
-        <v>1</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="4">
+        <v>1</v>
+      </c>
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>1</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="B12">
         <v>1</v>
       </c>
@@ -1389,38 +1625,38 @@
       <c r="E12">
         <v>1042</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>2628827</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>1407536</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>1046</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <v>2680883</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>1437147</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>1046</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>2616764</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>1416166</v>
       </c>
-      <c r="R12" s="5">
+      <c r="R12" s="4">
         <v>1042</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1437,7 +1673,7 @@
         <v>2628827</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23">
       <c r="B15">
         <v>0</v>
       </c>
@@ -1451,7 +1687,7 @@
         <v>1407536</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23">
       <c r="B16">
         <v>1</v>
       </c>
@@ -1464,7 +1700,7 @@
       <c r="E16">
         <v>1046</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="5" t="s">
         <v>41</v>
       </c>
       <c r="U16">
@@ -1477,8 +1713,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
-      <c r="T17" s="6" t="s">
+    <row r="17" spans="1:23">
+      <c r="T17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="U17">
@@ -1491,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1507,7 +1743,7 @@
       <c r="E18">
         <v>18888244</v>
       </c>
-      <c r="T18" s="6" t="s">
+      <c r="T18" s="5" t="s">
         <v>43</v>
       </c>
       <c r="U18">
@@ -1520,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23">
       <c r="B19">
         <v>0</v>
       </c>
@@ -1543,7 +1779,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23">
       <c r="B20">
         <v>0</v>
       </c>
@@ -1557,7 +1793,7 @@
         <v>1437147</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1574,7 +1810,7 @@
         <v>2616764</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23">
       <c r="B24">
         <v>0</v>
       </c>
@@ -1588,7 +1824,7 @@
         <v>1416166</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23">
       <c r="B25">
         <v>1</v>
       </c>
@@ -1613,4 +1849,587 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB526A2-397F-495C-9DB7-158C7BC965F4}">
+  <dimension ref="A2:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="45.15625" customWidth="1"/>
+    <col min="3" max="3" width="10.62890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3">
+        <v>324856189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3">
+        <v>213496944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="10">
+        <v>11623774</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9121849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2661276</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="10">
+        <v>15891727</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10">
+        <v>108550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="10">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="10">
+        <v>4191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="10">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="10">
+        <v>2387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="10">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="10">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="10">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="10">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="10">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="10">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="10">
+        <v>73951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="10">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="10">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="10">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="10">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="10">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="10">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="10">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="10">
+        <v>13122200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="10">
+        <v>344567</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2944989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="10">
+        <v>545169</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="10">
+        <v>5466857</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="10">
+        <v>423623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="10">
+        <v>2673069</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A49"/>
+    <mergeCell ref="A50:A55"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7ECAA-2D45-4187-8D9D-FEC712993F4C}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1311</v>
+      </c>
+      <c r="C2">
+        <v>4407944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1231</v>
+      </c>
+      <c r="C3">
+        <v>4084873</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4">
+        <v>272</v>
+      </c>
+      <c r="C4">
+        <v>1275318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>996</v>
+      </c>
+      <c r="C5">
+        <v>3671669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1472</v>
+      </c>
+      <c r="C6">
+        <v>4602799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7">
+        <v>1484</v>
+      </c>
+      <c r="C7">
+        <v>4515715</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>